--- a/Manual testing/Project/Testcase.xlsx
+++ b/Manual testing/Project/Testcase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="181">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -64,21 +64,9 @@
     <t>3. Click on the "Submit" button</t>
   </si>
   <si>
-    <t>Name: John Doe</t>
-  </si>
-  <si>
-    <t>Email: johndoe@example.com</t>
-  </si>
-  <si>
-    <t>Address: Test Street, City</t>
-  </si>
-  <si>
     <t>The entered details should be displayed under "Output"</t>
   </si>
   <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
     <t>Return to home page</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>3. Click "Submit"</t>
   </si>
   <si>
-    <t>Gender: Male</t>
-  </si>
-  <si>
     <t>Mobile: 1234567890</t>
   </si>
   <si>
@@ -170,13 +155,461 @@
   </si>
   <si>
     <t>Alert should pop up, and user should be able to accept/dismiss it</t>
+  </si>
+  <si>
+    <t>Name: hetal jadav</t>
+  </si>
+  <si>
+    <t>Email: hetaljadav154@gmai.com</t>
+  </si>
+  <si>
+    <t>Address: nadiad</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Gender: Female</t>
+  </si>
+  <si>
+    <t>Verify that the user can use the "Accordian" widget.</t>
+  </si>
+  <si>
+    <t>User is on the "Widgets" page and has access to the "Accordian" section.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>The content under the first header should expand and be visible.</t>
+  </si>
+  <si>
+    <t>The accordian state should remain until the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can use the "Auto Complete" widget.</t>
+  </si>
+  <si>
+    <t>User is on the "Widgets" page and has access to the "Auto Complete" section.</t>
+  </si>
+  <si>
+    <t>The dropdown should display suggestions based on the input.</t>
+  </si>
+  <si>
+    <t>The selected option should be displayed in the input field.</t>
+  </si>
+  <si>
+    <t>Verify that the user can use the "Date Picker" widget.</t>
+  </si>
+  <si>
+    <t>User is on the "Widgets" page and has access to the "Date Picker" section.</t>
+  </si>
+  <si>
+    <t>The selected date should be displayed in the input field.</t>
+  </si>
+  <si>
+    <t>The selected date should remain until the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can use the "Slider" widget.</t>
+  </si>
+  <si>
+    <t>User is on the "Widgets" page and has access to the "Slider" section.</t>
+  </si>
+  <si>
+    <t>The value displayed should change according to the slider position.</t>
+  </si>
+  <si>
+    <t>The slider position should remain until the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can use the "Progress Bar" widget.</t>
+  </si>
+  <si>
+    <t>User is on the "Widgets" page and has access to the "Progress Bar" section.</t>
+  </si>
+  <si>
+    <t>The progress bar should fill up and display 100% completion.</t>
+  </si>
+  <si>
+    <t>The progress bar should reset after completion.</t>
+  </si>
+  <si>
+    <t>Verify that the user can use the "Tabs" widget.</t>
+  </si>
+  <si>
+    <t>User is on the "Widgets" page and has access to the "Tabs" section.</t>
+  </si>
+  <si>
+    <t>The content for the selected tab should be displayed correctly.</t>
+  </si>
+  <si>
+    <t>The tab selection should remain until the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can use the "Tool Tips" widget.</t>
+  </si>
+  <si>
+    <t>User is on the "Widgets" page and has access to the "Tool Tips" section.</t>
+  </si>
+  <si>
+    <t>A tooltip should appear with the correct information.</t>
+  </si>
+  <si>
+    <t>The tooltip should disappear when the mouse is moved away.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Widgets" section.
+2. Click on "Accordian".
+3. Click on the first accordian header.
+4. Verify that the content expands.</t>
+  </si>
+  <si>
+    <t>Verify that the user can drag and drop an element.</t>
+  </si>
+  <si>
+    <t>User is on the "Interactions" page and has access to the "Droppable" section.</t>
+  </si>
+  <si>
+    <t>The "Drop here" area should display a message indicating the drop was successful.</t>
+  </si>
+  <si>
+    <t>The state of the elements should remain until the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can resize an element.</t>
+  </si>
+  <si>
+    <t>User is on the "Interactions" page and has access to the "Resizable" section.</t>
+  </si>
+  <si>
+    <t>The box should resize according to the drag action.</t>
+  </si>
+  <si>
+    <t>The resized state should remain until the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can select an item from a selectable list.</t>
+  </si>
+  <si>
+    <t>User is on the "Interactions" page and has access to the "Selectable" section.</t>
+  </si>
+  <si>
+    <t>The selected item should be highlighted.</t>
+  </si>
+  <si>
+    <t>The selection should remain until the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can perform a click action on a button.</t>
+  </si>
+  <si>
+    <t>User is on the "Interactions" page and has access to the "Buttons" section.</t>
+  </si>
+  <si>
+    <t>An alert should pop up with the message "You have clicked the button".</t>
+  </si>
+  <si>
+    <t>The alert should be dismissed, and the user should remain on the same page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can interact with the "Links".</t>
+  </si>
+  <si>
+    <t>User is on the "Interactions" page and has access to the "Links" section.</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the correct URL.</t>
+  </si>
+  <si>
+    <t>The user should remain on the new page until they navigate away.</t>
+  </si>
+  <si>
+    <t>Verify that the user can handle alerts.</t>
+  </si>
+  <si>
+    <t>User is on the "Interactions" page and has access to the "Alerts" section.</t>
+  </si>
+  <si>
+    <t>An alert should pop up with the correct message.</t>
+  </si>
+  <si>
+    <t>Verify that the user can interact with frames.</t>
+  </si>
+  <si>
+    <t>User is on the "Interactions" page and has access to the "Frames" section.</t>
+  </si>
+  <si>
+    <t>The user should be able to interact with the elements inside the frame.</t>
+  </si>
+  <si>
+    <t>The interaction state should remain until the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Verify that the user can view the list of books.</t>
+  </si>
+  <si>
+    <t>User is on the "Books" page.</t>
+  </si>
+  <si>
+    <t>The list of books should be displayed correctly.</t>
+  </si>
+  <si>
+    <t>The list should remain visible until the user navigates away.</t>
+  </si>
+  <si>
+    <t>Verify that the user can search for a specific book.</t>
+  </si>
+  <si>
+    <t>Book Title: "Git Pocket Guide"</t>
+  </si>
+  <si>
+    <t>The search results should display the matching book.</t>
+  </si>
+  <si>
+    <t>The search results should remain until the user performs a new search.</t>
+  </si>
+  <si>
+    <t>Verify that the user can add a book to the collection.</t>
+  </si>
+  <si>
+    <t>User is on the "Books" page and is logged in.</t>
+  </si>
+  <si>
+    <t>The book should be added to the user's collection.</t>
+  </si>
+  <si>
+    <t>The book should remain in the user's collection until removed.</t>
+  </si>
+  <si>
+    <t>Verify that the user can view book details.</t>
+  </si>
+  <si>
+    <t>The book details should be displayed correctly.</t>
+  </si>
+  <si>
+    <t>The book details should remain visible until the user navigates away.</t>
+  </si>
+  <si>
+    <t>Verify that the user can delete a book from the collection.</t>
+  </si>
+  <si>
+    <t>User is on the "Books" page and has a book in the collection.</t>
+  </si>
+  <si>
+    <t>The book should be removed from the user's collection.</t>
+  </si>
+  <si>
+    <t>The book should no longer appear in the user's collection.</t>
+  </si>
+  <si>
+    <t>Verify that the user can log in to access the book collection.</t>
+  </si>
+  <si>
+    <t>The user should be logged in and redirected to the books page.</t>
+  </si>
+  <si>
+    <t>The user should remain logged in until they log out.</t>
+  </si>
+  <si>
+    <t>Verify that the user can log out from the book collection.</t>
+  </si>
+  <si>
+    <t>User is logged in on the "Books" page.</t>
+  </si>
+  <si>
+    <t>The user should be logged out and redirected to the login page.</t>
+  </si>
+  <si>
+    <t>The user should remain logged out until they log in again.</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Widgets" section.
+2. Click on "Auto Complete".
+3. Enter a value in the input field.
+4. Select an option from the dropdown.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Widgets" section.
+2. Click on "Slider".
+3. Drag the slider handle to a new position.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Widgets" section.
+2. Click on "Date Picker".
+3. Click on the date input field.
+4. Select a date from the calendar.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Widgets" section.
+2. Click on "Progress Bar".
+3. Click the "Start" button.
+4. Wait for the progress to complete.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Widgets" section.
+2. Click on "Tabs".
+3. Click on each tab header.
+4. Verify that the corresponding content is displayed.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Widgets" section.2. Click on 
+"Tool Tips".
+3. Hover over the tooltip element.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Interactions" section.
+2. Click on "Droppable".
+3. Drag the "Drag me" box and drop it onto the "Drop here" area.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Interactions" section.
+2. Click on "Resizable".
+3. Drag the resize handle to change the size of the box.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Interactions" section.
+2. Click on "Selectable".
+3. Click on an item in the list.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Interactions" section.
+2. Click on "Buttons".
+3. Click the "Click Me" button.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Interactions" section.
+2. Click on "Links".
+3. Click on the link provided.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Interactions" section.
+2. Click on "Alerts".
+3. Click the button to trigger the alert.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Interactions" section.
+2. Click on "Frames".
+3. Interact with the elements inside the frame.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Books" section.
+2. Observe the list of available books.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Books" section.
+2. Enter a book title in the search bar.
+3. Click the search button.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Books" section.
+2. Select a book from the list.
+3. Click the "Add to Your Collection" button.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Books" section.
+2. Click on a book title to view its details.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Books" section.
+2. Go to "Profile" and view the collection.
+3. Click the "Delete" button next to a book.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Books" section.
+2. Click on the "Login" button.
+3. Enter valid credentials.
+4. Click the "Submit" button.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the "Books" section.
+2. Click on the "Logout" button.</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>Input: "bl" (to trigger suggestions)</t>
+  </si>
+  <si>
+    <t>Username: "Hetal"
+Password: "hetal@123"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -193,6 +626,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF09090B"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -217,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -229,6 +668,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -441,26 +888,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,286 +936,1333 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="63">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" ht="63">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" ht="47.25">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" ht="63">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" ht="63">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" ht="47.25">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" ht="47.25">
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" ht="47.25">
+      <c r="A24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" ht="47.25">
+      <c r="A25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" ht="47.25">
+      <c r="A26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" ht="47.25">
+      <c r="A27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" ht="47.25">
+      <c r="A28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" ht="47.25">
+      <c r="A29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" ht="31.5">
+      <c r="A30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" ht="47.25">
+      <c r="A31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" ht="47.25">
+      <c r="A32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" ht="31.5">
+      <c r="A33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" ht="47.25">
+      <c r="A34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" ht="63">
+      <c r="A35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="31.5">
+      <c r="A36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A10:A12"/>
@@ -784,21 +2278,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
